--- a/dtpu_configurations/only_integer16/80mhz/mxu_16x16/timing.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_16x16/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.38257041573524475</v>
+        <v>0.22468960285186768</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.01195565890520811</v>
+        <v>0.006574629805982113</v>
       </c>
     </row>
   </sheetData>
